--- a/data/trans_bre/CONS_TEN-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,22%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 2,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 0,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,36%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 1,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; 0,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,85; 115,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,7; 6,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,15; 402,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1383,99%</t>
+          <t>72,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-45,25%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,85; -1,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,18</t>
+          <t>-0,82; 12,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; -0,2</t>
+          <t>-8,19; -0,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,44; -15,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 380,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,96; -10,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>-51,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>103,98%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-18,25%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,57</t>
+          <t>-18,63; -10,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,68</t>
+          <t>-10,47; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,0</t>
+          <t>-10,09; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,31; -39,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,68; —</t>
+          <t>-32,29; 2,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,36; 8,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>21,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>-18,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-44,59%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>-15,27%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,12</t>
+          <t>-12,59; -1,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 0,23</t>
+          <t>-5,56; 45,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,93</t>
+          <t>-12,61; -0,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,55; 296,77</t>
+          <t>-30,46; -4,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,08; 13,0</t>
+          <t>-11,66; 107,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,7; 103,98</t>
+          <t>-27,57; -0,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-46,65%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-45,71%</t>
+          <t>26,96%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -1,48</t>
+          <t>-10,43; 1,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,21</t>
+          <t>-3,02; 12,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -1,99</t>
+          <t>5,58; 18,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-67,02; -15,15</t>
+          <t>-17,4; 2,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 27,82</t>
+          <t>-4,94; 24,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-63,31; -24,25</t>
+          <t>11,63; 44,8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,95</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-15,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-50,65%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 1,97</t>
+          <t>-5,11; -1,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,37</t>
+          <t>1,21; 29,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -9,97</t>
+          <t>-1,45; 2,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 9,78</t>
+          <t>-23,15; -6,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 5,42</t>
+          <t>5,77; 205,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,74; -39,27</t>
+          <t>-8,22; 15,98</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>8,77</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-13,11%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>18,38%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-24,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 0,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 30,34</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; -4,67</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-25,83; 1,21</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 68,95</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-33,5; -12,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>25,96%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-4,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>5,63; 18,16</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 12,52</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 2,32</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>10,83; 42,08</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 23,34</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-12,72; 4,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,63</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-2,19%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>20,0%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-14,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 1,46</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 12,93</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; -1,15</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 7,4</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 68,66</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-21,3; -6,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_TEN-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,0</t>
+          <t>-2,28; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,0</t>
+          <t>-0,88; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,3</t>
+          <t>-0,81; 1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>-31,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,06</t>
+          <t>-1,87; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,07</t>
+          <t>-6,4; 0,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 115,53</t>
+          <t>-83,1; 117,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,7; 6,91</t>
+          <t>-80,41; 10,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,79%</t>
+          <t>-20,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,33</t>
+          <t>-4,14; 1,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 12,69</t>
+          <t>-0,74; 14,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,44; -15,62</t>
+          <t>-45,43; 16,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 380,44</t>
+          <t>-6,68; 436,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,3</t>
+          <t>-11,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-51,33%</t>
+          <t>-44,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -10,13</t>
+          <t>-15,26; -7,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 0,65</t>
+          <t>-10,86; 0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-61,31; -39,74</t>
+          <t>-54,87; -32,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 2,72</t>
+          <t>-33,75; 3,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,59; -1,59</t>
+          <t>-15,24; -4,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 45,85</t>
+          <t>-5,1; 43,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -4,54</t>
+          <t>-35,58; -11,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 107,1</t>
+          <t>-10,6; 100,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-9,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 1,58</t>
+          <t>-11,34; 0,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 12,13</t>
+          <t>-3,29; 11,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 2,86</t>
+          <t>-18,87; 0,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 24,31</t>
+          <t>-5,37; 23,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,27%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,35</t>
+          <t>-3,77; -0,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 29,66</t>
+          <t>1,53; 35,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,15; -6,83</t>
+          <t>-19,24; -2,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,77; 205,87</t>
+          <t>7,7; 280,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_TEN-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,61</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-2,28; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-0,15</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>163,62%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-40,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>137,56%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-40,22%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,58; 1,99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 0,48</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,88; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 1,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 0,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,44</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-51,48%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45,36%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-31,31%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-49,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,36%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,25; -0,11</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 2,68</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,87; 0,74</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 0,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 2,68</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-80,03; 1,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-59,15; 402,99</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-83,1; 117,04</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-80,41; 10,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-59,15; 402,99</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-4,81</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-1,59</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,81</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-45,25%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-20,58%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>72,31%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-45,25%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-3,39; 4,35</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; -0,97</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-4,14; 1,02</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 14,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; -0,97</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-24,57; 47,77</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-65,96; -10,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-45,43; 16,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 436,59</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-65,96; -10,65</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-11,21</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,29</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-10,49%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-18,25%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-44,68%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-16,1%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-18,25%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-9,15; 2,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,09; 1,55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-15,26; -7,65</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 0,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 1,55</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-28,89; 10,09</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-37,36; 8,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-54,87; -32,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-33,75; 3,54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-37,36; 8,18</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-6,58</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-9,37</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,58</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-2,61%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-15,27%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-23,86%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>45,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-15,27%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-8,91; 5,24</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; -0,15</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-15,24; -4,42</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 43,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,61; -0,15</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-18,04; 12,48</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-27,57; -0,56</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-35,58; -11,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-10,6; 100,42</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-27,57; -0,56</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12,2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-5,47</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,2</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-9,66%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>26,96%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,54; 11,76</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 18,42</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-11,34; 0,49</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 11,91</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 18,42</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-6,01; 22,96</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 44,8</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-18,87; 0,78</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 23,29</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 44,8</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-2,19</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>10,31</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-11,55%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>62,77%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-0,65; 3,57</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 2,38</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-3,77; -0,38</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 35,85</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 2,38</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-3,45; 21,27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 15,98</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-19,24; -2,17</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 280,18</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; 15,98</t>
         </is>
       </c>
     </row>
